--- a/Maquette_ZZ2_2022-2023.xlsx
+++ b/Maquette_ZZ2_2022-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0da2765c8d4aeb1/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Code/ISIMA_ZZ2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_66B930C0D9B282D8884D7C6084197ABF996D3F88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52EA46A5-FCB4-4934-995A-0C4FC1C026B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39837220-3257-004B-B981-B03482D17F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="0" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -2112,6 +2112,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2151,35 +2181,104 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2199,24 +2298,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2226,110 +2307,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2343,11 +2349,32 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2370,9 +2397,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2388,33 +2412,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2427,10 +2427,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2699,59 +2695,59 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="8"/>
-    <col min="9" max="9" width="52.28515625" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="6" width="11.5" style="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="8"/>
+    <col min="9" max="9" width="52.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="167"/>
+      <c r="K1" s="154"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+    <row r="2" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
+      <c r="K2" s="158"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2780,20 +2776,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
       <c r="J4" s="41">
         <v>14</v>
       </c>
@@ -2801,8 +2797,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2831,8 +2827,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+    <row r="6" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2861,8 +2857,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -2891,8 +2887,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
       <c r="B8" s="102" t="s">
         <v>16</v>
       </c>
@@ -2921,8 +2917,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
+    <row r="9" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
       <c r="B9" s="102" t="s">
         <v>19</v>
       </c>
@@ -2950,18 +2946,18 @@
       </c>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="172" t="s">
+    <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
+      <c r="B10" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
       <c r="J10" s="43">
         <v>11</v>
       </c>
@@ -2969,8 +2965,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
       <c r="B11" s="102" t="s">
         <v>24</v>
       </c>
@@ -2998,8 +2994,8 @@
       </c>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
       <c r="B12" s="102" t="s">
         <v>26</v>
       </c>
@@ -3032,9 +3028,12 @@
       <c r="M12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
+      <c r="N12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
       <c r="B13" s="102" t="s">
         <v>28</v>
       </c>
@@ -3067,9 +3066,12 @@
       <c r="M13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
       <c r="B14" s="102" t="s">
         <v>30</v>
       </c>
@@ -3103,8 +3105,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
       <c r="B15" s="102" t="s">
         <v>31</v>
       </c>
@@ -3136,25 +3138,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="151" t="s">
+    <row r="16" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
       <c r="J16" s="43"/>
       <c r="K16" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+    <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3166,8 +3168,8 @@
       <c r="J17" s="18"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="161"/>
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="171"/>
       <c r="B18" s="24" t="s">
         <v>36</v>
       </c>
@@ -3189,31 +3191,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156" t="s">
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="153" t="s">
+      <c r="B20" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="155"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="165"/>
       <c r="J20" s="140"/>
       <c r="K20" s="141">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
+    <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="167"/>
       <c r="B21" s="35" t="s">
         <v>171</v>
       </c>
@@ -3233,8 +3235,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
+    <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="168"/>
       <c r="B22" s="36" t="s">
         <v>172</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -3265,16 +3267,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
@@ -3292,49 +3294,49 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="167"/>
-    </row>
-    <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="K1" s="154"/>
+    </row>
+    <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
-    </row>
-    <row r="3" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -3364,20 +3366,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="41">
         <v>12</v>
       </c>
@@ -3385,12 +3387,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="198" t="s">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
+      <c r="B5" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="49">
         <v>10</v>
       </c>
@@ -3401,21 +3403,21 @@
       <c r="G5" s="66">
         <v>1</v>
       </c>
-      <c r="H5" s="184" t="s">
+      <c r="H5" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="200" t="s">
+      <c r="I5" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="182">
+      <c r="J5" s="174">
         <v>3</v>
       </c>
-      <c r="K5" s="202"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="183"/>
+      <c r="K5" s="200"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="62"/>
       <c r="E6" s="68">
         <v>20</v>
@@ -3426,13 +3428,13 @@
       <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="203"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="201"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
       <c r="B7" s="46" t="s">
         <v>54</v>
       </c>
@@ -3458,8 +3460,8 @@
       </c>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -3485,8 +3487,8 @@
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
       <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
@@ -3512,8 +3514,8 @@
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+    <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
       <c r="B10" s="46" t="s">
         <v>45</v>
       </c>
@@ -3537,18 +3539,18 @@
       </c>
       <c r="K10" s="27"/>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="176" t="s">
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
+      <c r="B11" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
       <c r="J11" s="43">
         <v>8</v>
       </c>
@@ -3556,55 +3558,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="178" t="s">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
+      <c r="B12" s="211" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="180"/>
       <c r="D12" s="7">
         <v>16</v>
       </c>
-      <c r="E12" s="182"/>
+      <c r="E12" s="174"/>
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="193" t="s">
+      <c r="G12" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="184" t="s">
+      <c r="H12" s="196" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="182">
-        <v>2</v>
-      </c>
-      <c r="K12" s="195"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="179"/>
+      <c r="J12" s="174">
+        <v>2</v>
+      </c>
+      <c r="K12" s="176"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
+      <c r="B13" s="212"/>
       <c r="C13" s="181"/>
       <c r="D13" s="59">
         <v>4</v>
       </c>
-      <c r="E13" s="183"/>
+      <c r="E13" s="175"/>
       <c r="F13" s="59">
         <v>2</v>
       </c>
-      <c r="G13" s="194"/>
-      <c r="H13" s="185"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="197"/>
       <c r="I13" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="183"/>
-      <c r="K13" s="197"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="198" t="s">
+      <c r="J13" s="175"/>
+      <c r="K13" s="177"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
+      <c r="B14" s="178" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="180"/>
@@ -3618,21 +3620,21 @@
       <c r="G14" s="66">
         <v>1</v>
       </c>
-      <c r="H14" s="186" t="s">
+      <c r="H14" s="213" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="189" t="s">
+      <c r="I14" s="190" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="182">
-        <v>2</v>
-      </c>
-      <c r="K14" s="195"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="210"/>
-      <c r="C15" s="211"/>
+      <c r="J14" s="174">
+        <v>2</v>
+      </c>
+      <c r="K14" s="176"/>
+    </row>
+    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="65"/>
       <c r="E15" s="67">
         <v>6</v>
@@ -3643,14 +3645,14 @@
       <c r="G15" s="69">
         <v>1</v>
       </c>
-      <c r="H15" s="187"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="196"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="199"/>
+      <c r="H15" s="214"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="195"/>
+    </row>
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="179"/>
       <c r="C16" s="181"/>
       <c r="D16" s="62"/>
       <c r="E16" s="68">
@@ -3662,20 +3664,20 @@
       <c r="G16" s="64">
         <v>1</v>
       </c>
-      <c r="H16" s="188"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="191"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="197"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="204" t="s">
+      <c r="J16" s="175"/>
+      <c r="K16" s="177"/>
+    </row>
+    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
+      <c r="B17" s="186" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="49">
         <v>8</v>
       </c>
-      <c r="D17" s="207"/>
+      <c r="D17" s="188"/>
       <c r="E17" s="66"/>
       <c r="F17" s="7">
         <v>2</v>
@@ -3686,19 +3688,19 @@
       <c r="H17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="182">
-        <v>2</v>
-      </c>
-      <c r="K17" s="195"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="205"/>
+      <c r="J17" s="174">
+        <v>2</v>
+      </c>
+      <c r="K17" s="176"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="170"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="72"/>
-      <c r="D18" s="208"/>
+      <c r="D18" s="203"/>
       <c r="E18" s="67">
         <v>8</v>
       </c>
@@ -3711,15 +3713,15 @@
       <c r="H18" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="190"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="196"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="206"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="170"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="71"/>
-      <c r="D19" s="209"/>
+      <c r="D19" s="189"/>
       <c r="E19" s="68">
         <v>4</v>
       </c>
@@ -3731,18 +3733,18 @@
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="197"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="204" t="s">
+      <c r="J19" s="175"/>
+      <c r="K19" s="177"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="170"/>
+      <c r="B20" s="186" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="49">
         <v>10</v>
       </c>
-      <c r="D20" s="207"/>
+      <c r="D20" s="188"/>
       <c r="E20" s="6"/>
       <c r="F20" s="66">
         <v>2</v>
@@ -3753,19 +3755,19 @@
       <c r="H20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="189" t="s">
+      <c r="I20" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="182">
-        <v>2</v>
-      </c>
-      <c r="K20" s="195"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="206"/>
+      <c r="J20" s="174">
+        <v>2</v>
+      </c>
+      <c r="K20" s="176"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="170"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="71"/>
-      <c r="D21" s="209"/>
+      <c r="D21" s="189"/>
       <c r="E21" s="63">
         <v>10</v>
       </c>
@@ -3779,21 +3781,21 @@
         <v>76</v>
       </c>
       <c r="I21" s="191"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="197"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="176" t="s">
+      <c r="J21" s="175"/>
+      <c r="K21" s="177"/>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="170"/>
+      <c r="B22" s="209" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="210"/>
       <c r="J22" s="43">
         <v>8</v>
       </c>
@@ -3801,9 +3803,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="198" t="s">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="170"/>
+      <c r="B23" s="178" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="180"/>
@@ -3817,20 +3819,20 @@
       <c r="G23" s="50">
         <v>1</v>
       </c>
-      <c r="H23" s="212" t="s">
+      <c r="H23" s="184" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="182">
-        <v>2</v>
-      </c>
-      <c r="K23" s="195"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
-      <c r="B24" s="199"/>
+      <c r="J23" s="174">
+        <v>2</v>
+      </c>
+      <c r="K23" s="176"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="170"/>
+      <c r="B24" s="179"/>
       <c r="C24" s="181"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68">
@@ -3842,64 +3844,64 @@
       <c r="G24" s="68">
         <v>2</v>
       </c>
-      <c r="H24" s="213"/>
+      <c r="H24" s="185"/>
       <c r="I24" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="197"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="198" t="s">
+      <c r="J24" s="175"/>
+      <c r="K24" s="177"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="170"/>
+      <c r="B25" s="178" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="180"/>
       <c r="D25" s="66">
         <v>8</v>
       </c>
-      <c r="E25" s="182"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="66">
         <v>2</v>
       </c>
       <c r="G25" s="66">
         <v>1</v>
       </c>
-      <c r="H25" s="214" t="s">
+      <c r="H25" s="182" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="182">
-        <v>2</v>
-      </c>
-      <c r="K25" s="195"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="199"/>
+      <c r="J25" s="174">
+        <v>2</v>
+      </c>
+      <c r="K25" s="176"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="170"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="181"/>
       <c r="D26" s="68">
         <v>12</v>
       </c>
-      <c r="E26" s="183"/>
+      <c r="E26" s="175"/>
       <c r="F26" s="68">
         <v>3</v>
       </c>
       <c r="G26" s="68">
         <v>1</v>
       </c>
-      <c r="H26" s="215"/>
+      <c r="H26" s="183"/>
       <c r="I26" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="183"/>
-      <c r="K26" s="197"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
-      <c r="B27" s="198" t="s">
+      <c r="J26" s="175"/>
+      <c r="K26" s="177"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="170"/>
+      <c r="B27" s="178" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="180"/>
@@ -3913,20 +3915,20 @@
       <c r="G27" s="50">
         <v>1</v>
       </c>
-      <c r="H27" s="214" t="s">
+      <c r="H27" s="182" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="182">
-        <v>2</v>
-      </c>
-      <c r="K27" s="195"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
-      <c r="B28" s="199"/>
+      <c r="J27" s="174">
+        <v>2</v>
+      </c>
+      <c r="K27" s="176"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="170"/>
+      <c r="B28" s="179"/>
       <c r="C28" s="181"/>
       <c r="D28" s="68"/>
       <c r="E28" s="60">
@@ -3938,16 +3940,16 @@
       <c r="G28" s="64">
         <v>1</v>
       </c>
-      <c r="H28" s="215"/>
+      <c r="H28" s="183"/>
       <c r="I28" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="183"/>
-      <c r="K28" s="197"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="198" t="s">
+      <c r="J28" s="175"/>
+      <c r="K28" s="177"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="170"/>
+      <c r="B29" s="178" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="180"/>
@@ -3961,20 +3963,20 @@
       <c r="G29" s="50">
         <v>1</v>
       </c>
-      <c r="H29" s="214" t="s">
+      <c r="H29" s="182" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="182">
-        <v>2</v>
-      </c>
-      <c r="K29" s="195"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
-      <c r="B30" s="199"/>
+      <c r="J29" s="174">
+        <v>2</v>
+      </c>
+      <c r="K29" s="176"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="170"/>
+      <c r="B30" s="179"/>
       <c r="C30" s="181"/>
       <c r="D30" s="68"/>
       <c r="E30" s="60">
@@ -3986,15 +3988,15 @@
       <c r="G30" s="64">
         <v>2</v>
       </c>
-      <c r="H30" s="215"/>
+      <c r="H30" s="183"/>
       <c r="I30" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="183"/>
-      <c r="K30" s="197"/>
-    </row>
-    <row r="31" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="177"/>
+    </row>
+    <row r="31" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="170"/>
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -4006,8 +4008,8 @@
       <c r="J31" s="82"/>
       <c r="K31" s="86"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="161"/>
+    <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="171"/>
       <c r="B32" s="24" t="s">
         <v>36</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4046,7 +4048,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="45"/>
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
@@ -4059,7 +4061,7 @@
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="54"/>
       <c r="C35" s="55"/>
@@ -4072,7 +4074,7 @@
       <c r="J35" s="55"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="54"/>
       <c r="C36" s="55"/>
@@ -4087,32 +4089,22 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:A32"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J12:J13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="K17:K19"/>
@@ -4129,22 +4121,32 @@
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:A32"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -4158,53 +4160,53 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="167"/>
-    </row>
-    <row r="2" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="K1" s="154"/>
+    </row>
+    <row r="2" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
-    </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4234,20 +4236,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="41">
         <v>7</v>
       </c>
@@ -4255,9 +4257,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="204" t="s">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
+      <c r="B5" s="186" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="49">
@@ -4274,17 +4276,17 @@
       <c r="H5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="200" t="s">
+      <c r="I5" s="198" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="182">
-        <v>2</v>
-      </c>
-      <c r="K5" s="202"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="199"/>
+      <c r="J5" s="174">
+        <v>2</v>
+      </c>
+      <c r="K5" s="200"/>
+    </row>
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="91"/>
       <c r="D6" s="62"/>
       <c r="E6" s="68">
@@ -4299,12 +4301,12 @@
       <c r="H6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="201"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="203"/>
-    </row>
-    <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+      <c r="I6" s="199"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="201"/>
+    </row>
+    <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
       <c r="B7" s="46" t="s">
         <v>67</v>
       </c>
@@ -4330,8 +4332,8 @@
       </c>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+    <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
       <c r="B8" s="46" t="s">
         <v>124</v>
       </c>
@@ -4357,18 +4359,18 @@
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="176" t="s">
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
+      <c r="B9" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
       <c r="J9" s="43">
         <v>9</v>
       </c>
@@ -4376,8 +4378,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
       <c r="B10" s="92" t="s">
         <v>70</v>
       </c>
@@ -4406,9 +4408,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="198" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
+      <c r="B11" s="178" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="180"/>
@@ -4419,26 +4421,26 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="193" t="s">
+      <c r="G11" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="217" t="s">
+      <c r="H11" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="189" t="s">
+      <c r="I11" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="182">
-        <v>2</v>
-      </c>
-      <c r="K11" s="195"/>
-      <c r="L11" s="216">
+      <c r="J11" s="174">
+        <v>2</v>
+      </c>
+      <c r="K11" s="176"/>
+      <c r="L11" s="218">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="199"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
+      <c r="B12" s="179"/>
       <c r="C12" s="181"/>
       <c r="D12" s="59"/>
       <c r="E12" s="63">
@@ -4447,15 +4449,15 @@
       <c r="F12" s="59">
         <v>2</v>
       </c>
-      <c r="G12" s="194"/>
-      <c r="H12" s="218"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="217"/>
       <c r="I12" s="191"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="197"/>
-      <c r="L12" s="216"/>
-    </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="218"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
       <c r="B13" s="92" t="s">
         <v>133</v>
       </c>
@@ -4486,9 +4488,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="204" t="s">
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
+      <c r="B14" s="186" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="49">
@@ -4505,20 +4507,20 @@
       <c r="H14" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="189" t="s">
+      <c r="I14" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="182">
-        <v>2</v>
-      </c>
-      <c r="K14" s="195"/>
-      <c r="L14" s="216">
+      <c r="J14" s="174">
+        <v>2</v>
+      </c>
+      <c r="K14" s="176"/>
+      <c r="L14" s="218">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="199"/>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="71"/>
       <c r="D15" s="59"/>
       <c r="E15" s="63">
@@ -4534,22 +4536,22 @@
         <v>76</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="197"/>
-      <c r="L15" s="216"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="176" t="s">
+      <c r="J15" s="175"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="218"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="210"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="210"/>
+      <c r="I16" s="210"/>
       <c r="J16" s="43">
         <v>9</v>
       </c>
@@ -4557,9 +4559,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="198" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
+      <c r="B17" s="178" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="180"/>
@@ -4573,23 +4575,23 @@
       <c r="G17" s="50">
         <v>1</v>
       </c>
-      <c r="H17" s="212" t="s">
+      <c r="H17" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="182">
-        <v>2</v>
-      </c>
-      <c r="K17" s="195"/>
-      <c r="L17" s="216">
+      <c r="J17" s="174">
+        <v>2</v>
+      </c>
+      <c r="K17" s="176"/>
+      <c r="L17" s="218">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="199"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="170"/>
+      <c r="B18" s="179"/>
       <c r="C18" s="181"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68">
@@ -4601,14 +4603,14 @@
       <c r="G18" s="68">
         <v>2</v>
       </c>
-      <c r="H18" s="213"/>
+      <c r="H18" s="185"/>
       <c r="I18" s="191"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="197"/>
-      <c r="L18" s="216"/>
-    </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="218"/>
+    </row>
+    <row r="19" spans="1:12" ht="26" x14ac:dyDescent="0.2">
+      <c r="A19" s="170"/>
       <c r="B19" s="219" t="s">
         <v>176</v>
       </c>
@@ -4626,19 +4628,19 @@
       <c r="H19" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="189" t="s">
+      <c r="I19" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="182">
+      <c r="J19" s="174">
         <v>3</v>
       </c>
-      <c r="K19" s="195"/>
+      <c r="K19" s="176"/>
       <c r="L19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="170"/>
       <c r="B20" s="220"/>
       <c r="C20" s="71"/>
       <c r="D20" s="68"/>
@@ -4655,11 +4657,11 @@
         <v>76</v>
       </c>
       <c r="I20" s="191"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="197"/>
-    </row>
-    <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="177"/>
+    </row>
+    <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="170"/>
       <c r="B21" s="61" t="s">
         <v>80</v>
       </c>
@@ -4685,9 +4687,9 @@
       </c>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
-      <c r="B22" s="204" t="s">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="170"/>
+      <c r="B22" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="49">
@@ -4704,20 +4706,20 @@
       <c r="H22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="189" t="s">
+      <c r="I22" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="182">
-        <v>2</v>
-      </c>
-      <c r="K22" s="195"/>
-      <c r="L22" s="216">
+      <c r="J22" s="174">
+        <v>2</v>
+      </c>
+      <c r="K22" s="176"/>
+      <c r="L22" s="218">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="199"/>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="170"/>
+      <c r="B23" s="179"/>
       <c r="C23" s="71"/>
       <c r="D23" s="68"/>
       <c r="E23" s="63">
@@ -4733,12 +4735,12 @@
         <v>76</v>
       </c>
       <c r="I23" s="191"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="197"/>
-      <c r="L23" s="216"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="218"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="170"/>
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="81"/>
@@ -4750,8 +4752,8 @@
       <c r="J24" s="82"/>
       <c r="K24" s="86"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="161"/>
+    <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="171"/>
       <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
@@ -4781,15 +4783,22 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
@@ -4806,22 +4815,15 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4839,49 +4841,49 @@
       <selection activeCell="J23" sqref="J23:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="167"/>
-    </row>
-    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="K1" s="154"/>
+    </row>
+    <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4911,20 +4913,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="41">
         <v>8</v>
       </c>
@@ -4932,9 +4934,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="204" t="s">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
+      <c r="B5" s="186" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="49">
@@ -4951,17 +4953,17 @@
       <c r="H5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="189" t="s">
+      <c r="I5" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="182">
-        <v>2</v>
-      </c>
-      <c r="K5" s="195"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="199"/>
+      <c r="J5" s="174">
+        <v>2</v>
+      </c>
+      <c r="K5" s="176"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
+      <c r="B6" s="179"/>
       <c r="C6" s="71"/>
       <c r="D6" s="59"/>
       <c r="E6" s="63">
@@ -4977,52 +4979,52 @@
         <v>76</v>
       </c>
       <c r="I6" s="191"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="197"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="204" t="s">
+      <c r="J6" s="175"/>
+      <c r="K6" s="177"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
+      <c r="B7" s="186" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="182">
+      <c r="D7" s="174">
         <v>20</v>
       </c>
       <c r="E7" s="66"/>
-      <c r="F7" s="193">
-        <v>2</v>
-      </c>
-      <c r="G7" s="193">
-        <v>1</v>
-      </c>
-      <c r="H7" s="222" t="s">
+      <c r="F7" s="192">
+        <v>2</v>
+      </c>
+      <c r="G7" s="192">
+        <v>1</v>
+      </c>
+      <c r="H7" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="200" t="s">
+      <c r="I7" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="182">
-        <v>2</v>
-      </c>
-      <c r="K7" s="202"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
-      <c r="B8" s="199"/>
+      <c r="J7" s="174">
+        <v>2</v>
+      </c>
+      <c r="K7" s="200"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
+      <c r="B8" s="179"/>
       <c r="C8" s="91"/>
-      <c r="D8" s="183"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="203"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="198" t="s">
+      <c r="F8" s="193"/>
+      <c r="G8" s="193"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="201"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
+      <c r="B9" s="178" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="180"/>
@@ -5033,23 +5035,23 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="193" t="s">
+      <c r="G9" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="189" t="s">
+      <c r="I9" s="190" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="182">
-        <v>2</v>
-      </c>
-      <c r="K9" s="195"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="199"/>
+      <c r="J9" s="174">
+        <v>2</v>
+      </c>
+      <c r="K9" s="176"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="181"/>
       <c r="D10" s="59"/>
       <c r="E10" s="63">
@@ -5058,14 +5060,14 @@
       <c r="F10" s="59">
         <v>2</v>
       </c>
-      <c r="G10" s="194"/>
-      <c r="H10" s="185"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="197"/>
       <c r="I10" s="191"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="197"/>
-    </row>
-    <row r="11" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="177"/>
+    </row>
+    <row r="11" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
       <c r="B11" s="46" t="s">
         <v>124</v>
       </c>
@@ -5091,18 +5093,18 @@
       </c>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="176" t="s">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
+      <c r="B12" s="209" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
       <c r="J12" s="43">
         <v>9</v>
       </c>
@@ -5110,8 +5112,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
       <c r="B13" s="92" t="s">
         <v>136</v>
       </c>
@@ -5137,9 +5139,9 @@
       </c>
       <c r="K13" s="27"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
-      <c r="B14" s="204" t="s">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
+      <c r="B14" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="49">
@@ -5156,17 +5158,17 @@
       <c r="H14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="189" t="s">
+      <c r="I14" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="182">
-        <v>2</v>
-      </c>
-      <c r="K14" s="195"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="199"/>
+      <c r="J14" s="174">
+        <v>2</v>
+      </c>
+      <c r="K14" s="176"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
+      <c r="B15" s="179"/>
       <c r="C15" s="71"/>
       <c r="D15" s="68"/>
       <c r="E15" s="63">
@@ -5182,12 +5184,12 @@
         <v>76</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="197"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="198" t="s">
+      <c r="J15" s="175"/>
+      <c r="K15" s="177"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="178" t="s">
         <v>138</v>
       </c>
       <c r="C16" s="180"/>
@@ -5198,23 +5200,23 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="193" t="s">
+      <c r="G16" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="184" t="s">
+      <c r="H16" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="189" t="s">
+      <c r="I16" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="182">
+      <c r="J16" s="174">
         <v>4</v>
       </c>
-      <c r="K16" s="195"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="199"/>
+      <c r="K16" s="176"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
+      <c r="B17" s="179"/>
       <c r="C17" s="181"/>
       <c r="D17" s="59"/>
       <c r="E17" s="63">
@@ -5223,24 +5225,24 @@
       <c r="F17" s="59">
         <v>2</v>
       </c>
-      <c r="G17" s="194"/>
-      <c r="H17" s="185"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="197"/>
       <c r="I17" s="191"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="197"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="176" t="s">
+      <c r="J17" s="175"/>
+      <c r="K17" s="177"/>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="170"/>
+      <c r="B18" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
+      <c r="C18" s="210"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
       <c r="J18" s="43">
         <v>10</v>
       </c>
@@ -5248,8 +5250,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="170"/>
       <c r="B19" s="219" t="s">
         <v>177</v>
       </c>
@@ -5264,20 +5266,20 @@
       <c r="G19" s="50">
         <v>1</v>
       </c>
-      <c r="H19" s="212" t="s">
+      <c r="H19" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="189" t="s">
+      <c r="I19" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="182">
-        <v>2</v>
-      </c>
-      <c r="K19" s="195"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="221"/>
+      <c r="J19" s="174">
+        <v>2</v>
+      </c>
+      <c r="K19" s="176"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="170"/>
+      <c r="B20" s="223"/>
       <c r="C20" s="181"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68">
@@ -5289,13 +5291,13 @@
       <c r="G20" s="68">
         <v>2</v>
       </c>
-      <c r="H20" s="213"/>
+      <c r="H20" s="185"/>
       <c r="I20" s="191"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="197"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="177"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="170"/>
       <c r="B21" s="219" t="s">
         <v>176</v>
       </c>
@@ -5313,16 +5315,16 @@
       <c r="H21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="189" t="s">
+      <c r="I21" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="182">
+      <c r="J21" s="174">
         <v>3</v>
       </c>
-      <c r="K21" s="195"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="K21" s="176"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="170"/>
       <c r="B22" s="220"/>
       <c r="C22" s="71"/>
       <c r="D22" s="68"/>
@@ -5339,11 +5341,11 @@
         <v>76</v>
       </c>
       <c r="I22" s="191"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="197"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="177"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="170"/>
       <c r="B23" s="219" t="s">
         <v>175</v>
       </c>
@@ -5361,16 +5363,16 @@
       <c r="H23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="189" t="s">
+      <c r="I23" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="182">
+      <c r="J23" s="174">
         <v>3</v>
       </c>
-      <c r="K23" s="195"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="K23" s="176"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="170"/>
       <c r="B24" s="220"/>
       <c r="C24" s="71"/>
       <c r="D24" s="68"/>
@@ -5385,12 +5387,12 @@
       </c>
       <c r="H24" s="90"/>
       <c r="I24" s="191"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="197"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="204" t="s">
+      <c r="J24" s="175"/>
+      <c r="K24" s="177"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="170"/>
+      <c r="B25" s="186" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="49">
@@ -5398,40 +5400,40 @@
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="193">
-        <v>2</v>
-      </c>
-      <c r="G25" s="193">
+      <c r="F25" s="192">
+        <v>2</v>
+      </c>
+      <c r="G25" s="192">
         <v>1</v>
       </c>
       <c r="H25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="189" t="s">
+      <c r="I25" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="182">
-        <v>2</v>
-      </c>
-      <c r="K25" s="195"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="199"/>
+      <c r="J25" s="174">
+        <v>2</v>
+      </c>
+      <c r="K25" s="176"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="170"/>
+      <c r="B26" s="179"/>
       <c r="C26" s="71"/>
       <c r="D26" s="68"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="194"/>
-      <c r="G26" s="194"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
       <c r="H26" s="90" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="191"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="197"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="177"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="170"/>
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5443,8 +5445,8 @@
       <c r="J27" s="82"/>
       <c r="K27" s="86"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="161"/>
+    <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="171"/>
       <c r="B28" s="24" t="s">
         <v>36</v>
       </c>
@@ -5474,48 +5476,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
@@ -5532,6 +5492,48 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -5549,51 +5551,51 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="167"/>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="K1" s="154"/>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
-    </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5623,20 +5625,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="142">
         <v>10</v>
       </c>
@@ -5644,8 +5646,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
       <c r="B5" s="92" t="s">
         <v>88</v>
       </c>
@@ -5671,8 +5673,8 @@
       </c>
       <c r="K5" s="145"/>
     </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
       <c r="B6" s="92" t="s">
         <v>89</v>
       </c>
@@ -5698,8 +5700,8 @@
       </c>
       <c r="K6" s="145"/>
     </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
       <c r="B7" s="97" t="s">
         <v>91</v>
       </c>
@@ -5725,8 +5727,8 @@
       </c>
       <c r="K7" s="146"/>
     </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
       <c r="B8" s="97" t="s">
         <v>92</v>
       </c>
@@ -5752,15 +5754,15 @@
       </c>
       <c r="K8" s="146"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="204" t="s">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
+      <c r="B9" s="186" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="49">
         <v>10</v>
       </c>
-      <c r="D9" s="207"/>
+      <c r="D9" s="188"/>
       <c r="E9" s="6"/>
       <c r="F9" s="66">
         <v>2</v>
@@ -5771,19 +5773,19 @@
       <c r="H9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="189" t="s">
+      <c r="I9" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="224">
-        <v>2</v>
-      </c>
-      <c r="K9" s="228"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="206"/>
+      <c r="J9" s="226">
+        <v>2</v>
+      </c>
+      <c r="K9" s="224"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
+      <c r="B10" s="187"/>
       <c r="C10" s="71"/>
-      <c r="D10" s="209"/>
+      <c r="D10" s="189"/>
       <c r="E10" s="63">
         <v>10</v>
       </c>
@@ -5797,21 +5799,21 @@
         <v>76</v>
       </c>
       <c r="I10" s="191"/>
-      <c r="J10" s="225"/>
-      <c r="K10" s="229"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
-      <c r="B11" s="176" t="s">
+      <c r="J10" s="227"/>
+      <c r="K10" s="225"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
+      <c r="B11" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
       <c r="J11" s="143">
         <v>12</v>
       </c>
@@ -5819,9 +5821,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
-      <c r="B12" s="204" t="s">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
+      <c r="B12" s="186" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="49"/>
@@ -5838,17 +5840,17 @@
       <c r="H12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="189" t="s">
+      <c r="I12" s="190" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="224">
+      <c r="J12" s="226">
         <v>4</v>
       </c>
-      <c r="K12" s="228"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="206"/>
+      <c r="K12" s="224"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
+      <c r="B13" s="187"/>
       <c r="C13" s="71"/>
       <c r="D13" s="63">
         <v>12</v>
@@ -5864,11 +5866,11 @@
         <v>20</v>
       </c>
       <c r="I13" s="191"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="229"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="225"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
       <c r="B14" s="92" t="s">
         <v>97</v>
       </c>
@@ -5894,8 +5896,8 @@
       </c>
       <c r="K14" s="145"/>
     </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
       <c r="B15" s="92" t="s">
         <v>98</v>
       </c>
@@ -5921,8 +5923,8 @@
       </c>
       <c r="K15" s="145"/>
     </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
       <c r="B16" s="94" t="s">
         <v>99</v>
       </c>
@@ -5948,18 +5950,18 @@
       </c>
       <c r="K16" s="148"/>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="226" t="s">
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
+      <c r="B17" s="228" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
+      <c r="C17" s="229"/>
+      <c r="D17" s="229"/>
+      <c r="E17" s="229"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
       <c r="J17" s="143">
         <v>13</v>
       </c>
@@ -5967,8 +5969,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+    <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="170"/>
       <c r="B18" s="113" t="s">
         <v>100</v>
       </c>
@@ -5994,48 +5996,48 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="204" t="s">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="170"/>
+      <c r="B19" s="186" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="182">
+      <c r="C19" s="174">
         <v>18</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="193">
-        <v>2</v>
-      </c>
-      <c r="G19" s="193">
-        <v>1</v>
-      </c>
-      <c r="H19" s="184" t="s">
+      <c r="F19" s="192">
+        <v>2</v>
+      </c>
+      <c r="G19" s="192">
+        <v>1</v>
+      </c>
+      <c r="H19" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="189" t="s">
+      <c r="I19" s="190" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="224">
+      <c r="J19" s="226">
         <v>4</v>
       </c>
-      <c r="K19" s="195"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="183"/>
+      <c r="K19" s="176"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="170"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="68"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="185"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="197"/>
       <c r="I20" s="191"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="197"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="J20" s="227"/>
+      <c r="K20" s="177"/>
+    </row>
+    <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="170"/>
       <c r="B21" s="61" t="s">
         <v>103</v>
       </c>
@@ -6061,8 +6063,8 @@
       </c>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="170"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="81"/>
@@ -6074,8 +6076,8 @@
       <c r="J22" s="82"/>
       <c r="K22" s="86"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
+    <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="171"/>
       <c r="B23" s="24" t="s">
         <v>36</v>
       </c>
@@ -6105,15 +6107,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="B11:I11"/>
@@ -6130,6 +6123,15 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6147,49 +6149,49 @@
       <selection activeCell="I17" sqref="I17:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.5" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="166" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="167"/>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="K1" s="154"/>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="155" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="170" t="s">
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="171"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -6219,20 +6221,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="159" t="s">
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="174" t="s">
+      <c r="B4" s="207" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
+      <c r="C4" s="208"/>
+      <c r="D4" s="208"/>
+      <c r="E4" s="208"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
       <c r="J4" s="41">
         <v>11</v>
       </c>
@@ -6240,65 +6242,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="160"/>
-      <c r="B5" s="198" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="170"/>
+      <c r="B5" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182">
+      <c r="C5" s="174"/>
+      <c r="D5" s="174">
         <v>12</v>
       </c>
-      <c r="E5" s="193"/>
-      <c r="F5" s="193">
-        <v>2</v>
-      </c>
-      <c r="G5" s="193">
+      <c r="E5" s="192"/>
+      <c r="F5" s="192">
+        <v>2</v>
+      </c>
+      <c r="G5" s="192">
         <v>1</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="200" t="s">
+      <c r="I5" s="198" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="182">
-        <v>2</v>
-      </c>
-      <c r="K5" s="202"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="160"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
+      <c r="J5" s="174">
+        <v>2</v>
+      </c>
+      <c r="K5" s="200"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="170"/>
+      <c r="B6" s="205"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="230"/>
+      <c r="F6" s="230"/>
+      <c r="G6" s="230"/>
       <c r="H6" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="249"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="250"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="160"/>
-      <c r="B7" s="199"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="232"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="170"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
       <c r="H7" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="201"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="203"/>
-    </row>
-    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="201"/>
+    </row>
+    <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="170"/>
       <c r="B8" s="46" t="s">
         <v>67</v>
       </c>
@@ -6324,9 +6326,9 @@
       </c>
       <c r="K8" s="27"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="237" t="s">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="170"/>
+      <c r="B9" s="236" t="s">
         <v>152</v>
       </c>
       <c r="C9" s="123">
@@ -6343,17 +6345,17 @@
       <c r="H9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="246" t="s">
+      <c r="I9" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="182">
-        <v>2</v>
-      </c>
-      <c r="K9" s="202"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160"/>
-      <c r="B10" s="179"/>
+      <c r="J9" s="174">
+        <v>2</v>
+      </c>
+      <c r="K9" s="200"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="170"/>
+      <c r="B10" s="212"/>
       <c r="C10" s="131"/>
       <c r="D10" s="132"/>
       <c r="E10" s="130">
@@ -6368,12 +6370,12 @@
       <c r="H10" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="247"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="203"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="160"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="201"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="170"/>
       <c r="B11" s="137" t="s">
         <v>112</v>
       </c>
@@ -6399,8 +6401,8 @@
       </c>
       <c r="K11" s="101"/>
     </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160"/>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="170"/>
       <c r="B12" s="102" t="s">
         <v>113</v>
       </c>
@@ -6426,18 +6428,18 @@
       </c>
       <c r="K12" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="160"/>
-      <c r="B13" s="233" t="s">
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="170"/>
+      <c r="B13" s="242" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="234"/>
-      <c r="G13" s="234"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
       <c r="J13" s="43">
         <v>10</v>
       </c>
@@ -6445,8 +6447,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="170"/>
       <c r="B14" s="118" t="s">
         <v>115</v>
       </c>
@@ -6472,61 +6474,61 @@
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
-      <c r="B15" s="178" t="s">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="170"/>
+      <c r="B15" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="235"/>
+      <c r="C15" s="244"/>
       <c r="D15" s="120">
         <v>20</v>
       </c>
-      <c r="E15" s="224"/>
+      <c r="E15" s="226"/>
       <c r="F15" s="120">
         <v>2</v>
       </c>
-      <c r="G15" s="243" t="s">
+      <c r="G15" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="245" t="s">
+      <c r="H15" s="235" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="182">
+      <c r="J15" s="174">
         <v>4</v>
       </c>
-      <c r="K15" s="195"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="236"/>
+      <c r="K15" s="176"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="245"/>
       <c r="D16" s="121">
         <v>20</v>
       </c>
-      <c r="E16" s="225"/>
+      <c r="E16" s="227"/>
       <c r="F16" s="121">
         <v>2</v>
       </c>
-      <c r="G16" s="244"/>
-      <c r="H16" s="218"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="217"/>
       <c r="I16" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="197"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
-      <c r="B17" s="237" t="s">
+      <c r="J16" s="175"/>
+      <c r="K16" s="177"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="170"/>
+      <c r="B17" s="236" t="s">
         <v>148</v>
       </c>
       <c r="C17" s="123">
         <v>8</v>
       </c>
-      <c r="D17" s="240"/>
+      <c r="D17" s="248"/>
       <c r="E17" s="115"/>
       <c r="F17" s="120">
         <v>2</v>
@@ -6537,19 +6539,19 @@
       <c r="H17" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="230" t="s">
+      <c r="I17" s="239" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="182">
-        <v>2</v>
-      </c>
-      <c r="K17" s="195"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
-      <c r="B18" s="238"/>
+      <c r="J17" s="174">
+        <v>2</v>
+      </c>
+      <c r="K17" s="176"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="170"/>
+      <c r="B18" s="246"/>
       <c r="C18" s="125"/>
-      <c r="D18" s="241"/>
+      <c r="D18" s="249"/>
       <c r="E18" s="126">
         <v>8</v>
       </c>
@@ -6562,15 +6564,15 @@
       <c r="H18" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="231"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="196"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
-      <c r="B19" s="239"/>
+      <c r="I18" s="240"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="195"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="170"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="129"/>
-      <c r="D19" s="242"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="130">
         <v>4</v>
       </c>
@@ -6581,12 +6583,12 @@
         <v>2</v>
       </c>
       <c r="H19" s="128"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="197"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="177"/>
+    </row>
+    <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="170"/>
       <c r="B20" s="118" t="s">
         <v>119</v>
       </c>
@@ -6612,18 +6614,18 @@
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="233" t="s">
+    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="170"/>
+      <c r="B21" s="242" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="234"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="234"/>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="234"/>
+      <c r="C21" s="243"/>
+      <c r="D21" s="243"/>
+      <c r="E21" s="243"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="243"/>
+      <c r="H21" s="243"/>
+      <c r="I21" s="243"/>
       <c r="J21" s="43">
         <v>6</v>
       </c>
@@ -6631,8 +6633,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+    <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="170"/>
       <c r="B22" s="118" t="s">
         <v>126</v>
       </c>
@@ -6658,8 +6660,8 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
+    <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="170"/>
       <c r="B23" s="134" t="s">
         <v>127</v>
       </c>
@@ -6685,8 +6687,8 @@
       </c>
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+    <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="170"/>
       <c r="B24" s="134" t="s">
         <v>145</v>
       </c>
@@ -6712,8 +6714,8 @@
       </c>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="170"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
@@ -6725,8 +6727,8 @@
       <c r="J25" s="82"/>
       <c r="K25" s="86"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="161"/>
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="171"/>
       <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
@@ -6756,23 +6758,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
@@ -6789,6 +6774,23 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D17:D19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
@@ -6803,14 +6805,14 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -6818,7 +6820,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -6826,17 +6828,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>159</v>
       </c>

--- a/Maquette_ZZ2_2022-2023.xlsx
+++ b/Maquette_ZZ2_2022-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neil/Code/ISIMA_ZZ2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39837220-3257-004B-B981-B03482D17F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14FFCF-5985-924E-A04D-75AA84EB0410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32060" yWindow="340" windowWidth="24240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC" sheetId="1" r:id="rId1"/>
@@ -2112,6 +2112,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2142,44 +2181,29 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2187,9 +2211,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2200,10 +2260,46 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2211,101 +2307,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2313,14 +2322,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2328,8 +2331,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2338,16 +2350,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2357,60 +2411,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2697,8 +2697,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2712,39 +2712,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2777,19 +2777,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
       <c r="J4" s="41">
         <v>14</v>
       </c>
@@ -2798,7 +2798,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="K5" s="27"/>
       <c r="L5">
-        <v>10</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2858,7 +2858,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="102" t="s">
         <v>16</v>
       </c>
@@ -2918,7 +2918,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="102" t="s">
         <v>19</v>
       </c>
@@ -2947,17 +2947,17 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="159" t="s">
+      <c r="A10" s="160"/>
+      <c r="B10" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
       <c r="J10" s="43">
         <v>11</v>
       </c>
@@ -2966,7 +2966,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="102" t="s">
         <v>24</v>
       </c>
@@ -2993,9 +2993,12 @@
         <v>4</v>
       </c>
       <c r="K11" s="20"/>
+      <c r="L11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="102" t="s">
         <v>26</v>
       </c>
@@ -3033,7 +3036,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="102" t="s">
         <v>28</v>
       </c>
@@ -3071,7 +3074,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="102" t="s">
         <v>30</v>
       </c>
@@ -3106,7 +3109,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="102" t="s">
         <v>31</v>
       </c>
@@ -3139,24 +3142,24 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="161" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
       <c r="J16" s="43"/>
       <c r="K16" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -3169,7 +3172,7 @@
       <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="171"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="24" t="s">
         <v>36</v>
       </c>
@@ -3196,26 +3199,26 @@
       <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="165"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="155"/>
       <c r="J20" s="140"/>
       <c r="K20" s="141">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="167"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="35" t="s">
         <v>171</v>
       </c>
@@ -3236,7 +3239,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="36" t="s">
         <v>172</v>
       </c>
@@ -3267,16 +3270,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B10:I10"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A4:A18"/>
     <mergeCell ref="B4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
@@ -3303,38 +3306,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3367,19 +3370,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="41">
         <v>12</v>
       </c>
@@ -3388,11 +3391,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="178" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="49">
         <v>10</v>
       </c>
@@ -3403,21 +3406,21 @@
       <c r="G5" s="66">
         <v>1</v>
       </c>
-      <c r="H5" s="196" t="s">
+      <c r="H5" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="198" t="s">
+      <c r="I5" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="174">
+      <c r="J5" s="182">
         <v>3</v>
       </c>
-      <c r="K5" s="200"/>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="175"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="62"/>
       <c r="E6" s="68">
         <v>20</v>
@@ -3428,13 +3431,13 @@
       <c r="G6" s="68">
         <v>1</v>
       </c>
-      <c r="H6" s="197"/>
-      <c r="I6" s="199"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="201"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="203"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="46" t="s">
         <v>54</v>
       </c>
@@ -3461,7 +3464,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -3488,7 +3491,7 @@
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
@@ -3515,7 +3518,7 @@
       <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="46" t="s">
         <v>45</v>
       </c>
@@ -3540,17 +3543,17 @@
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
-      <c r="B11" s="209" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="43">
         <v>8</v>
       </c>
@@ -3559,54 +3562,54 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="211" t="s">
+      <c r="A12" s="160"/>
+      <c r="B12" s="178" t="s">
         <v>143</v>
       </c>
       <c r="C12" s="180"/>
       <c r="D12" s="7">
         <v>16</v>
       </c>
-      <c r="E12" s="174"/>
+      <c r="E12" s="182"/>
       <c r="F12" s="7">
         <v>2</v>
       </c>
-      <c r="G12" s="192" t="s">
+      <c r="G12" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="196" t="s">
+      <c r="H12" s="184" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="174">
-        <v>2</v>
-      </c>
-      <c r="K12" s="176"/>
+      <c r="J12" s="182">
+        <v>2</v>
+      </c>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
-      <c r="B13" s="212"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="181"/>
       <c r="D13" s="59">
         <v>4</v>
       </c>
-      <c r="E13" s="175"/>
+      <c r="E13" s="183"/>
       <c r="F13" s="59">
         <v>2</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="197"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="185"/>
       <c r="I13" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="175"/>
-      <c r="K13" s="177"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="197"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
-      <c r="B14" s="178" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="198" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="180"/>
@@ -3620,21 +3623,21 @@
       <c r="G14" s="66">
         <v>1</v>
       </c>
-      <c r="H14" s="213" t="s">
+      <c r="H14" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="190" t="s">
+      <c r="I14" s="189" t="s">
         <v>163</v>
       </c>
-      <c r="J14" s="174">
-        <v>2</v>
-      </c>
-      <c r="K14" s="176"/>
+      <c r="J14" s="182">
+        <v>2</v>
+      </c>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="205"/>
-      <c r="C15" s="206"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="211"/>
       <c r="D15" s="65"/>
       <c r="E15" s="67">
         <v>6</v>
@@ -3645,14 +3648,14 @@
       <c r="G15" s="69">
         <v>1</v>
       </c>
-      <c r="H15" s="214"/>
-      <c r="I15" s="204"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="195"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="179"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="181"/>
       <c r="D16" s="62"/>
       <c r="E16" s="68">
@@ -3664,20 +3667,20 @@
       <c r="G16" s="64">
         <v>1</v>
       </c>
-      <c r="H16" s="215"/>
+      <c r="H16" s="188"/>
       <c r="I16" s="191"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="177"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="186" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="204" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="49">
         <v>8</v>
       </c>
-      <c r="D17" s="188"/>
+      <c r="D17" s="207"/>
       <c r="E17" s="66"/>
       <c r="F17" s="7">
         <v>2</v>
@@ -3688,19 +3691,19 @@
       <c r="H17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="174">
-        <v>2</v>
-      </c>
-      <c r="K17" s="176"/>
+      <c r="J17" s="182">
+        <v>2</v>
+      </c>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="202"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="72"/>
-      <c r="D18" s="203"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="67">
         <v>8</v>
       </c>
@@ -3713,15 +3716,15 @@
       <c r="H18" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="204"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="187"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="71"/>
-      <c r="D19" s="189"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="68">
         <v>4</v>
       </c>
@@ -3733,18 +3736,18 @@
       </c>
       <c r="H19" s="90"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="177"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="197"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
-      <c r="B20" s="186" t="s">
+      <c r="A20" s="160"/>
+      <c r="B20" s="204" t="s">
         <v>94</v>
       </c>
       <c r="C20" s="49">
         <v>10</v>
       </c>
-      <c r="D20" s="188"/>
+      <c r="D20" s="207"/>
       <c r="E20" s="6"/>
       <c r="F20" s="66">
         <v>2</v>
@@ -3755,19 +3758,19 @@
       <c r="H20" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="190" t="s">
+      <c r="I20" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="174">
-        <v>2</v>
-      </c>
-      <c r="K20" s="176"/>
+      <c r="J20" s="182">
+        <v>2</v>
+      </c>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
-      <c r="B21" s="187"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="206"/>
       <c r="C21" s="71"/>
-      <c r="D21" s="189"/>
+      <c r="D21" s="209"/>
       <c r="E21" s="63">
         <v>10</v>
       </c>
@@ -3781,21 +3784,21 @@
         <v>76</v>
       </c>
       <c r="I21" s="191"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="177"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="197"/>
     </row>
     <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
-      <c r="B22" s="209" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="210"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
       <c r="J22" s="43">
         <v>8</v>
       </c>
@@ -3804,8 +3807,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="178" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="198" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="180"/>
@@ -3819,20 +3822,20 @@
       <c r="G23" s="50">
         <v>1</v>
       </c>
-      <c r="H23" s="184" t="s">
+      <c r="H23" s="212" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="174">
-        <v>2</v>
-      </c>
-      <c r="K23" s="176"/>
+      <c r="J23" s="182">
+        <v>2</v>
+      </c>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="179"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="199"/>
       <c r="C24" s="181"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68">
@@ -3844,64 +3847,64 @@
       <c r="G24" s="68">
         <v>2</v>
       </c>
-      <c r="H24" s="185"/>
+      <c r="H24" s="213"/>
       <c r="I24" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="J24" s="175"/>
-      <c r="K24" s="177"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="178" t="s">
+      <c r="A25" s="160"/>
+      <c r="B25" s="198" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="180"/>
       <c r="D25" s="66">
         <v>8</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="182"/>
       <c r="F25" s="66">
         <v>2</v>
       </c>
       <c r="G25" s="66">
         <v>1</v>
       </c>
-      <c r="H25" s="182" t="s">
+      <c r="H25" s="214" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="174">
-        <v>2</v>
-      </c>
-      <c r="K25" s="176"/>
+      <c r="J25" s="182">
+        <v>2</v>
+      </c>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="170"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="181"/>
       <c r="D26" s="68">
         <v>12</v>
       </c>
-      <c r="E26" s="175"/>
+      <c r="E26" s="183"/>
       <c r="F26" s="68">
         <v>3</v>
       </c>
       <c r="G26" s="68">
         <v>1</v>
       </c>
-      <c r="H26" s="183"/>
+      <c r="H26" s="215"/>
       <c r="I26" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="J26" s="175"/>
-      <c r="K26" s="177"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="170"/>
-      <c r="B27" s="178" t="s">
+      <c r="A27" s="160"/>
+      <c r="B27" s="198" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="180"/>
@@ -3915,20 +3918,20 @@
       <c r="G27" s="50">
         <v>1</v>
       </c>
-      <c r="H27" s="182" t="s">
+      <c r="H27" s="214" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="174">
-        <v>2</v>
-      </c>
-      <c r="K27" s="176"/>
+      <c r="J27" s="182">
+        <v>2</v>
+      </c>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="170"/>
-      <c r="B28" s="179"/>
+      <c r="A28" s="160"/>
+      <c r="B28" s="199"/>
       <c r="C28" s="181"/>
       <c r="D28" s="68"/>
       <c r="E28" s="60">
@@ -3940,16 +3943,16 @@
       <c r="G28" s="64">
         <v>1</v>
       </c>
-      <c r="H28" s="183"/>
+      <c r="H28" s="215"/>
       <c r="I28" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="175"/>
-      <c r="K28" s="177"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="170"/>
-      <c r="B29" s="178" t="s">
+      <c r="A29" s="160"/>
+      <c r="B29" s="198" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="180"/>
@@ -3963,20 +3966,20 @@
       <c r="G29" s="50">
         <v>1</v>
       </c>
-      <c r="H29" s="182" t="s">
+      <c r="H29" s="214" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="J29" s="174">
-        <v>2</v>
-      </c>
-      <c r="K29" s="176"/>
+      <c r="J29" s="182">
+        <v>2</v>
+      </c>
+      <c r="K29" s="195"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="170"/>
-      <c r="B30" s="179"/>
+      <c r="A30" s="160"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="181"/>
       <c r="D30" s="68"/>
       <c r="E30" s="60">
@@ -3988,15 +3991,15 @@
       <c r="G30" s="64">
         <v>2</v>
       </c>
-      <c r="H30" s="183"/>
+      <c r="H30" s="215"/>
       <c r="I30" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="175"/>
-      <c r="K30" s="177"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="197"/>
     </row>
     <row r="31" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="170"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
@@ -4009,7 +4012,7 @@
       <c r="K31" s="86"/>
     </row>
     <row r="32" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="171"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="24" t="s">
         <v>36</v>
       </c>
@@ -4089,6 +4092,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="J2:K2"/>
@@ -4105,48 +4150,6 @@
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H29:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -4160,8 +4163,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4173,38 +4176,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4237,19 +4240,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="41">
         <v>7</v>
       </c>
@@ -4258,8 +4261,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="186" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="204" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="49">
@@ -4276,17 +4279,17 @@
       <c r="H5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="198" t="s">
+      <c r="I5" s="200" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="174">
-        <v>2</v>
-      </c>
-      <c r="K5" s="200"/>
+      <c r="J5" s="182">
+        <v>2</v>
+      </c>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="179"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="91"/>
       <c r="D6" s="62"/>
       <c r="E6" s="68">
@@ -4301,12 +4304,15 @@
       <c r="H6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="199"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="203"/>
+      <c r="L6">
+        <v>14.5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="46" t="s">
         <v>67</v>
       </c>
@@ -4331,9 +4337,12 @@
         <v>3</v>
       </c>
       <c r="K7" s="27"/>
+      <c r="L7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="46" t="s">
         <v>124</v>
       </c>
@@ -4358,19 +4367,22 @@
         <v>2</v>
       </c>
       <c r="K8" s="27"/>
+      <c r="L8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
-      <c r="B9" s="209" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
       <c r="J9" s="43">
         <v>9</v>
       </c>
@@ -4379,7 +4391,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="92" t="s">
         <v>70</v>
       </c>
@@ -4405,12 +4417,12 @@
       </c>
       <c r="K10" s="27"/>
       <c r="L10">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
-      <c r="B11" s="178" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="198" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="180"/>
@@ -4421,26 +4433,24 @@
       <c r="F11" s="7">
         <v>2</v>
       </c>
-      <c r="G11" s="192" t="s">
+      <c r="G11" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="216" t="s">
+      <c r="H11" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="190" t="s">
+      <c r="I11" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="174">
-        <v>2</v>
-      </c>
-      <c r="K11" s="176"/>
-      <c r="L11" s="218">
-        <v>10</v>
-      </c>
+      <c r="J11" s="182">
+        <v>2</v>
+      </c>
+      <c r="K11" s="195"/>
+      <c r="L11" s="216"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="179"/>
+      <c r="A12" s="160"/>
+      <c r="B12" s="199"/>
       <c r="C12" s="181"/>
       <c r="D12" s="59"/>
       <c r="E12" s="63">
@@ -4449,15 +4459,15 @@
       <c r="F12" s="59">
         <v>2</v>
       </c>
-      <c r="G12" s="193"/>
-      <c r="H12" s="217"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="220"/>
       <c r="I12" s="191"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="218"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="216"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="92" t="s">
         <v>133</v>
       </c>
@@ -4485,12 +4495,12 @@
       </c>
       <c r="K13" s="27"/>
       <c r="L13">
-        <v>10</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
-      <c r="B14" s="186" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="204" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="49">
@@ -4507,20 +4517,20 @@
       <c r="H14" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="190" t="s">
+      <c r="I14" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="174">
-        <v>2</v>
-      </c>
-      <c r="K14" s="176"/>
-      <c r="L14" s="218">
-        <v>12</v>
+      <c r="J14" s="182">
+        <v>2</v>
+      </c>
+      <c r="K14" s="195"/>
+      <c r="L14" s="216">
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="71"/>
       <c r="D15" s="59"/>
       <c r="E15" s="63">
@@ -4536,22 +4546,22 @@
         <v>76</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="218"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="216"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="209" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="210"/>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="210"/>
-      <c r="H16" s="210"/>
-      <c r="I16" s="210"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
       <c r="J16" s="43">
         <v>9</v>
       </c>
@@ -4560,8 +4570,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="178" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="198" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="180"/>
@@ -4575,23 +4585,23 @@
       <c r="G17" s="50">
         <v>1</v>
       </c>
-      <c r="H17" s="184" t="s">
+      <c r="H17" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="J17" s="174">
-        <v>2</v>
-      </c>
-      <c r="K17" s="176"/>
-      <c r="L17" s="218">
-        <v>16</v>
+      <c r="J17" s="182">
+        <v>2</v>
+      </c>
+      <c r="K17" s="195"/>
+      <c r="L17" s="216">
+        <v>14.75</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="179"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="199"/>
       <c r="C18" s="181"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68">
@@ -4603,15 +4613,15 @@
       <c r="G18" s="68">
         <v>2</v>
       </c>
-      <c r="H18" s="185"/>
+      <c r="H18" s="213"/>
       <c r="I18" s="191"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="218"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="197"/>
+      <c r="L18" s="216"/>
     </row>
     <row r="19" spans="1:12" ht="26" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="219" t="s">
+      <c r="A19" s="160"/>
+      <c r="B19" s="217" t="s">
         <v>176</v>
       </c>
       <c r="C19" s="49">
@@ -4628,20 +4638,17 @@
       <c r="H19" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="I19" s="190" t="s">
+      <c r="I19" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="174">
+      <c r="J19" s="182">
         <v>3</v>
       </c>
-      <c r="K19" s="176"/>
-      <c r="L19">
-        <v>10</v>
-      </c>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
-      <c r="B20" s="220"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="218"/>
       <c r="C20" s="71"/>
       <c r="D20" s="68"/>
       <c r="E20" s="63">
@@ -4657,11 +4664,11 @@
         <v>76</v>
       </c>
       <c r="I20" s="191"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="177"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="61" t="s">
         <v>80</v>
       </c>
@@ -4688,8 +4695,8 @@
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
-      <c r="B22" s="186" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="204" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="49">
@@ -4706,20 +4713,18 @@
       <c r="H22" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="190" t="s">
+      <c r="I22" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="174">
-        <v>2</v>
-      </c>
-      <c r="K22" s="176"/>
-      <c r="L22" s="218">
-        <v>8</v>
-      </c>
+      <c r="J22" s="182">
+        <v>2</v>
+      </c>
+      <c r="K22" s="195"/>
+      <c r="L22" s="216"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="179"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="199"/>
       <c r="C23" s="71"/>
       <c r="D23" s="68"/>
       <c r="E23" s="63">
@@ -4735,12 +4740,12 @@
         <v>76</v>
       </c>
       <c r="I23" s="191"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="218"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="216"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="79"/>
       <c r="C24" s="80"/>
       <c r="D24" s="81"/>
@@ -4753,7 +4758,7 @@
       <c r="K24" s="86"/>
     </row>
     <row r="25" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="171"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="24" t="s">
         <v>36</v>
       </c>
@@ -4783,6 +4788,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:A25"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="L11:L12"/>
@@ -4799,31 +4829,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:A25"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -4850,38 +4855,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4914,19 +4919,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="41">
         <v>8</v>
       </c>
@@ -4935,8 +4940,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="186" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="204" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="49">
@@ -4953,17 +4958,17 @@
       <c r="H5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="190" t="s">
+      <c r="I5" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="174">
-        <v>2</v>
-      </c>
-      <c r="K5" s="176"/>
+      <c r="J5" s="182">
+        <v>2</v>
+      </c>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="179"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="199"/>
       <c r="C6" s="71"/>
       <c r="D6" s="59"/>
       <c r="E6" s="63">
@@ -4979,52 +4984,52 @@
         <v>76</v>
       </c>
       <c r="I6" s="191"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="177"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="197"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
-      <c r="B7" s="186" t="s">
+      <c r="A7" s="160"/>
+      <c r="B7" s="204" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="174">
+      <c r="D7" s="182">
         <v>20</v>
       </c>
       <c r="E7" s="66"/>
-      <c r="F7" s="192">
-        <v>2</v>
-      </c>
-      <c r="G7" s="192">
-        <v>1</v>
-      </c>
-      <c r="H7" s="221" t="s">
+      <c r="F7" s="193">
+        <v>2</v>
+      </c>
+      <c r="G7" s="193">
+        <v>1</v>
+      </c>
+      <c r="H7" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="198" t="s">
+      <c r="I7" s="200" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="174">
-        <v>2</v>
-      </c>
-      <c r="K7" s="200"/>
+      <c r="J7" s="182">
+        <v>2</v>
+      </c>
+      <c r="K7" s="202"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
-      <c r="B8" s="179"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="199"/>
       <c r="C8" s="91"/>
-      <c r="D8" s="175"/>
+      <c r="D8" s="183"/>
       <c r="E8" s="68"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="201"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
-      <c r="B9" s="178" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="198" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="180"/>
@@ -5035,23 +5040,23 @@
       <c r="F9" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="192" t="s">
+      <c r="G9" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="196" t="s">
+      <c r="H9" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="190" t="s">
+      <c r="I9" s="189" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="174">
-        <v>2</v>
-      </c>
-      <c r="K9" s="176"/>
+      <c r="J9" s="182">
+        <v>2</v>
+      </c>
+      <c r="K9" s="195"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="179"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="199"/>
       <c r="C10" s="181"/>
       <c r="D10" s="59"/>
       <c r="E10" s="63">
@@ -5060,14 +5065,14 @@
       <c r="F10" s="59">
         <v>2</v>
       </c>
-      <c r="G10" s="193"/>
-      <c r="H10" s="197"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="185"/>
       <c r="I10" s="191"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="177"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="46" t="s">
         <v>124</v>
       </c>
@@ -5094,17 +5099,17 @@
       <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="209" t="s">
+      <c r="A12" s="160"/>
+      <c r="B12" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="210"/>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
       <c r="J12" s="43">
         <v>9</v>
       </c>
@@ -5113,7 +5118,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="92" t="s">
         <v>136</v>
       </c>
@@ -5140,8 +5145,8 @@
       <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
-      <c r="B14" s="186" t="s">
+      <c r="A14" s="160"/>
+      <c r="B14" s="204" t="s">
         <v>82</v>
       </c>
       <c r="C14" s="49">
@@ -5158,17 +5163,17 @@
       <c r="H14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="190" t="s">
+      <c r="I14" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="174">
-        <v>2</v>
-      </c>
-      <c r="K14" s="176"/>
+      <c r="J14" s="182">
+        <v>2</v>
+      </c>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="199"/>
       <c r="C15" s="71"/>
       <c r="D15" s="68"/>
       <c r="E15" s="63">
@@ -5184,12 +5189,12 @@
         <v>76</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="177"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="197"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="178" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="198" t="s">
         <v>138</v>
       </c>
       <c r="C16" s="180"/>
@@ -5200,23 +5205,23 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="192" t="s">
+      <c r="G16" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="196" t="s">
+      <c r="H16" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="190" t="s">
+      <c r="I16" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="174">
+      <c r="J16" s="182">
         <v>4</v>
       </c>
-      <c r="K16" s="176"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="179"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="199"/>
       <c r="C17" s="181"/>
       <c r="D17" s="59"/>
       <c r="E17" s="63">
@@ -5225,24 +5230,24 @@
       <c r="F17" s="59">
         <v>2</v>
       </c>
-      <c r="G17" s="193"/>
-      <c r="H17" s="197"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="185"/>
       <c r="I17" s="191"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="177"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="197"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="209" t="s">
+      <c r="A18" s="160"/>
+      <c r="B18" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="210"/>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
       <c r="J18" s="43">
         <v>10</v>
       </c>
@@ -5251,8 +5256,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="219" t="s">
+      <c r="A19" s="160"/>
+      <c r="B19" s="217" t="s">
         <v>177</v>
       </c>
       <c r="C19" s="180"/>
@@ -5266,20 +5271,20 @@
       <c r="G19" s="50">
         <v>1</v>
       </c>
-      <c r="H19" s="184" t="s">
+      <c r="H19" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="190" t="s">
+      <c r="I19" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="174">
-        <v>2</v>
-      </c>
-      <c r="K19" s="176"/>
+      <c r="J19" s="182">
+        <v>2</v>
+      </c>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
-      <c r="B20" s="223"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="181"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68">
@@ -5291,14 +5296,14 @@
       <c r="G20" s="68">
         <v>2</v>
       </c>
-      <c r="H20" s="185"/>
+      <c r="H20" s="213"/>
       <c r="I20" s="191"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="177"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
-      <c r="B21" s="219" t="s">
+      <c r="A21" s="160"/>
+      <c r="B21" s="217" t="s">
         <v>176</v>
       </c>
       <c r="C21" s="49">
@@ -5315,17 +5320,17 @@
       <c r="H21" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="190" t="s">
+      <c r="I21" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="174">
+      <c r="J21" s="182">
         <v>3</v>
       </c>
-      <c r="K21" s="176"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
-      <c r="B22" s="220"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="218"/>
       <c r="C22" s="71"/>
       <c r="D22" s="68"/>
       <c r="E22" s="63">
@@ -5341,12 +5346,12 @@
         <v>76</v>
       </c>
       <c r="I22" s="191"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="177"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="197"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
-      <c r="B23" s="219" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="217" t="s">
         <v>175</v>
       </c>
       <c r="C23" s="49"/>
@@ -5363,17 +5368,17 @@
       <c r="H23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="190" t="s">
+      <c r="I23" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="174">
+      <c r="J23" s="182">
         <v>3</v>
       </c>
-      <c r="K23" s="176"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
-      <c r="B24" s="220"/>
+      <c r="A24" s="160"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="71"/>
       <c r="D24" s="68"/>
       <c r="E24" s="149">
@@ -5387,12 +5392,12 @@
       </c>
       <c r="H24" s="90"/>
       <c r="I24" s="191"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="177"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
-      <c r="B25" s="186" t="s">
+      <c r="A25" s="160"/>
+      <c r="B25" s="204" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="49">
@@ -5400,40 +5405,40 @@
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="192">
-        <v>2</v>
-      </c>
-      <c r="G25" s="192">
+      <c r="F25" s="193">
+        <v>2</v>
+      </c>
+      <c r="G25" s="193">
         <v>1</v>
       </c>
       <c r="H25" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="190" t="s">
+      <c r="I25" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="J25" s="174">
-        <v>2</v>
-      </c>
-      <c r="K25" s="176"/>
+      <c r="J25" s="182">
+        <v>2</v>
+      </c>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="170"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="160"/>
+      <c r="B26" s="199"/>
       <c r="C26" s="71"/>
       <c r="D26" s="68"/>
       <c r="E26" s="63"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
       <c r="H26" s="90" t="s">
         <v>76</v>
       </c>
       <c r="I26" s="191"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="177"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="170"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5446,7 +5451,7 @@
       <c r="K27" s="86"/>
     </row>
     <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="171"/>
+      <c r="A28" s="161"/>
       <c r="B28" s="24" t="s">
         <v>36</v>
       </c>
@@ -5476,6 +5481,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
@@ -5492,48 +5539,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
@@ -5562,38 +5567,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5626,19 +5631,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="142">
         <v>10</v>
       </c>
@@ -5647,7 +5652,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
+      <c r="A5" s="160"/>
       <c r="B5" s="92" t="s">
         <v>88</v>
       </c>
@@ -5674,7 +5679,7 @@
       <c r="K5" s="145"/>
     </row>
     <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="92" t="s">
         <v>89</v>
       </c>
@@ -5701,7 +5706,7 @@
       <c r="K6" s="145"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
+      <c r="A7" s="160"/>
       <c r="B7" s="97" t="s">
         <v>91</v>
       </c>
@@ -5728,7 +5733,7 @@
       <c r="K7" s="146"/>
     </row>
     <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="97" t="s">
         <v>92</v>
       </c>
@@ -5755,14 +5760,14 @@
       <c r="K8" s="146"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
-      <c r="B9" s="186" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="204" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="49">
         <v>10</v>
       </c>
-      <c r="D9" s="188"/>
+      <c r="D9" s="207"/>
       <c r="E9" s="6"/>
       <c r="F9" s="66">
         <v>2</v>
@@ -5773,19 +5778,19 @@
       <c r="H9" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="190" t="s">
+      <c r="I9" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="226">
-        <v>2</v>
-      </c>
-      <c r="K9" s="224"/>
+      <c r="J9" s="224">
+        <v>2</v>
+      </c>
+      <c r="K9" s="228"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="187"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="206"/>
       <c r="C10" s="71"/>
-      <c r="D10" s="189"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="63">
         <v>10</v>
       </c>
@@ -5799,21 +5804,21 @@
         <v>76</v>
       </c>
       <c r="I10" s="191"/>
-      <c r="J10" s="227"/>
-      <c r="K10" s="225"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="229"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
-      <c r="B11" s="209" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
       <c r="J11" s="143">
         <v>12</v>
       </c>
@@ -5822,8 +5827,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
-      <c r="B12" s="186" t="s">
+      <c r="A12" s="160"/>
+      <c r="B12" s="204" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="49"/>
@@ -5840,17 +5845,17 @@
       <c r="H12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="190" t="s">
+      <c r="I12" s="189" t="s">
         <v>96</v>
       </c>
-      <c r="J12" s="226">
+      <c r="J12" s="224">
         <v>4</v>
       </c>
-      <c r="K12" s="224"/>
+      <c r="K12" s="228"/>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
-      <c r="B13" s="187"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="71"/>
       <c r="D13" s="63">
         <v>12</v>
@@ -5866,11 +5871,11 @@
         <v>20</v>
       </c>
       <c r="I13" s="191"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="225"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="229"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="92" t="s">
         <v>97</v>
       </c>
@@ -5897,7 +5902,7 @@
       <c r="K14" s="145"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="92" t="s">
         <v>98</v>
       </c>
@@ -5924,7 +5929,7 @@
       <c r="K15" s="145"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="94" t="s">
         <v>99</v>
       </c>
@@ -5951,17 +5956,17 @@
       <c r="K16" s="148"/>
     </row>
     <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="228" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="229"/>
-      <c r="D17" s="229"/>
-      <c r="E17" s="229"/>
-      <c r="F17" s="229"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="227"/>
       <c r="J17" s="143">
         <v>13</v>
       </c>
@@ -5970,7 +5975,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="113" t="s">
         <v>100</v>
       </c>
@@ -5997,47 +6002,47 @@
       <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="186" t="s">
+      <c r="A19" s="160"/>
+      <c r="B19" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="174">
+      <c r="C19" s="182">
         <v>18</v>
       </c>
       <c r="D19" s="66"/>
       <c r="E19" s="49"/>
-      <c r="F19" s="192">
-        <v>2</v>
-      </c>
-      <c r="G19" s="192">
-        <v>1</v>
-      </c>
-      <c r="H19" s="196" t="s">
+      <c r="F19" s="193">
+        <v>2</v>
+      </c>
+      <c r="G19" s="193">
+        <v>1</v>
+      </c>
+      <c r="H19" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="190" t="s">
+      <c r="I19" s="189" t="s">
         <v>102</v>
       </c>
-      <c r="J19" s="226">
+      <c r="J19" s="224">
         <v>4</v>
       </c>
-      <c r="K19" s="176"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="175"/>
+      <c r="A20" s="160"/>
+      <c r="B20" s="199"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="68"/>
       <c r="E20" s="63"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="197"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="185"/>
       <c r="I20" s="191"/>
-      <c r="J20" s="227"/>
-      <c r="K20" s="177"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="61" t="s">
         <v>103</v>
       </c>
@@ -6064,7 +6069,7 @@
       <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="79"/>
       <c r="C22" s="80"/>
       <c r="D22" s="81"/>
@@ -6077,7 +6082,7 @@
       <c r="K22" s="86"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="24" t="s">
         <v>36</v>
       </c>
@@ -6107,6 +6112,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="B11:I11"/>
@@ -6123,15 +6137,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -6158,38 +6163,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="153" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="154"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="157" t="s">
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="158"/>
+      <c r="K2" s="171"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -6222,19 +6227,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
       <c r="J4" s="41">
         <v>11</v>
       </c>
@@ -6243,64 +6248,64 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="178" t="s">
+      <c r="A5" s="160"/>
+      <c r="B5" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174">
+      <c r="C5" s="182"/>
+      <c r="D5" s="182">
         <v>12</v>
       </c>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192">
-        <v>2</v>
-      </c>
-      <c r="G5" s="192">
+      <c r="E5" s="193"/>
+      <c r="F5" s="193">
+        <v>2</v>
+      </c>
+      <c r="G5" s="193">
         <v>1</v>
       </c>
       <c r="H5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="198" t="s">
+      <c r="I5" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="174">
-        <v>2</v>
-      </c>
-      <c r="K5" s="200"/>
+      <c r="J5" s="182">
+        <v>2</v>
+      </c>
+      <c r="K5" s="202"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="205"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="230"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="230"/>
+      <c r="A6" s="160"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="248"/>
+      <c r="F6" s="248"/>
+      <c r="G6" s="248"/>
       <c r="H6" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="231"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="232"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="250"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="193"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="193"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
       <c r="H7" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="203"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="46" t="s">
         <v>67</v>
       </c>
@@ -6327,8 +6332,8 @@
       <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="170"/>
-      <c r="B9" s="236" t="s">
+      <c r="A9" s="160"/>
+      <c r="B9" s="237" t="s">
         <v>152</v>
       </c>
       <c r="C9" s="123">
@@ -6345,17 +6350,17 @@
       <c r="H9" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="237" t="s">
+      <c r="I9" s="246" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="174">
-        <v>2</v>
-      </c>
-      <c r="K9" s="200"/>
+      <c r="J9" s="182">
+        <v>2</v>
+      </c>
+      <c r="K9" s="202"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="170"/>
-      <c r="B10" s="212"/>
+      <c r="A10" s="160"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="131"/>
       <c r="D10" s="132"/>
       <c r="E10" s="130">
@@ -6370,12 +6375,12 @@
       <c r="H10" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="201"/>
+      <c r="I10" s="247"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="170"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="137" t="s">
         <v>112</v>
       </c>
@@ -6402,7 +6407,7 @@
       <c r="K11" s="101"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="102" t="s">
         <v>113</v>
       </c>
@@ -6429,17 +6434,17 @@
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="170"/>
-      <c r="B13" s="242" t="s">
+      <c r="A13" s="160"/>
+      <c r="B13" s="233" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="243"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="243"/>
-      <c r="G13" s="243"/>
-      <c r="H13" s="243"/>
-      <c r="I13" s="243"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="234"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="234"/>
       <c r="J13" s="43">
         <v>10</v>
       </c>
@@ -6448,7 +6453,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="170"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="118" t="s">
         <v>115</v>
       </c>
@@ -6475,60 +6480,60 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="170"/>
-      <c r="B15" s="211" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="244"/>
+      <c r="C15" s="235"/>
       <c r="D15" s="120">
         <v>20</v>
       </c>
-      <c r="E15" s="226"/>
+      <c r="E15" s="224"/>
       <c r="F15" s="120">
         <v>2</v>
       </c>
-      <c r="G15" s="233" t="s">
+      <c r="G15" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="235" t="s">
+      <c r="H15" s="245" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="174">
+      <c r="J15" s="182">
         <v>4</v>
       </c>
-      <c r="K15" s="176"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="170"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="245"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="236"/>
       <c r="D16" s="121">
         <v>20</v>
       </c>
-      <c r="E16" s="227"/>
+      <c r="E16" s="225"/>
       <c r="F16" s="121">
         <v>2</v>
       </c>
-      <c r="G16" s="234"/>
-      <c r="H16" s="217"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="220"/>
       <c r="I16" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="175"/>
-      <c r="K16" s="177"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="170"/>
-      <c r="B17" s="236" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="237" t="s">
         <v>148</v>
       </c>
       <c r="C17" s="123">
         <v>8</v>
       </c>
-      <c r="D17" s="248"/>
+      <c r="D17" s="240"/>
       <c r="E17" s="115"/>
       <c r="F17" s="120">
         <v>2</v>
@@ -6539,19 +6544,19 @@
       <c r="H17" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="239" t="s">
+      <c r="I17" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="174">
-        <v>2</v>
-      </c>
-      <c r="K17" s="176"/>
+      <c r="J17" s="182">
+        <v>2</v>
+      </c>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="170"/>
-      <c r="B18" s="246"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="238"/>
       <c r="C18" s="125"/>
-      <c r="D18" s="249"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="126">
         <v>8</v>
       </c>
@@ -6564,15 +6569,15 @@
       <c r="H18" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="240"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="195"/>
+      <c r="I18" s="231"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="170"/>
-      <c r="B19" s="247"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="239"/>
       <c r="C19" s="129"/>
-      <c r="D19" s="250"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="130">
         <v>4</v>
       </c>
@@ -6583,12 +6588,12 @@
         <v>2</v>
       </c>
       <c r="H19" s="128"/>
-      <c r="I19" s="241"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="177"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="197"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="170"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="118" t="s">
         <v>119</v>
       </c>
@@ -6615,17 +6620,17 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="170"/>
-      <c r="B21" s="242" t="s">
+      <c r="A21" s="160"/>
+      <c r="B21" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="243"/>
-      <c r="D21" s="243"/>
-      <c r="E21" s="243"/>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="243"/>
+      <c r="C21" s="234"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
+      <c r="H21" s="234"/>
+      <c r="I21" s="234"/>
       <c r="J21" s="43">
         <v>6</v>
       </c>
@@ -6634,7 +6639,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="170"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="118" t="s">
         <v>126</v>
       </c>
@@ -6661,7 +6666,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="170"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="134" t="s">
         <v>127</v>
       </c>
@@ -6688,7 +6693,7 @@
       <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="170"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="134" t="s">
         <v>145</v>
       </c>
@@ -6715,7 +6720,7 @@
       <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="170"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="79"/>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
@@ -6728,7 +6733,7 @@
       <c r="K25" s="86"/>
     </row>
     <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="24" t="s">
         <v>36</v>
       </c>
@@ -6758,6 +6763,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:I2"/>
@@ -6774,23 +6796,6 @@
     <mergeCell ref="B21:I21"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
